--- a/protocols/SprintReview_Protocol2_GamerHaven.xlsx
+++ b/protocols/SprintReview_Protocol2_GamerHaven.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GamerHaven_WebShop\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57675574-4FC8-4E20-8A67-40000D02E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDE5F6-90BA-4DC8-923C-54465598DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>REQ17</t>
+  </si>
+  <si>
+    <t>REQ18</t>
+  </si>
+  <si>
+    <t>Live-Suche der Produkte</t>
   </si>
 </sst>
 </file>
@@ -405,6 +411,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,12 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,33 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE3C726-37E9-451B-9308-D99ECF6E7468}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -801,28 +807,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -836,95 +842,95 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24">
         <v>2</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="17">
+      <c r="C5" s="26">
         <v>45762</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -932,16 +938,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1059,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1082,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1159,7 +1165,7 @@
       <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="5">
@@ -1179,15 +1185,25 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="5"/>
     </row>
@@ -1198,7 +1214,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4">
         <f>SUM(E15:E24)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="4">
         <f>COUNT(F15:F24)</f>
@@ -1212,14 +1228,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -1229,6 +1237,14 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
